--- a/AUTO - 복사본.xlsx
+++ b/AUTO - 복사본.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corea\Desktop\holdem-auto-trader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B206F9-9EB0-4EC2-8289-4DCED0C8F90E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD175EAF-6EA9-47CB-95FF-759434FD36CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="15">
   <si>
     <t>본매 PB</t>
   </si>
@@ -35,10 +35,10 @@
     <t>S</t>
   </si>
   <si>
-    <t>T</t>
+    <t>본매 PTB</t>
   </si>
   <si>
-    <t>본매 PTB</t>
+    <t>T</t>
   </si>
   <si>
     <t>예상 PICK</t>
@@ -1011,7 +1011,7 @@
   <dimension ref="A1:CA41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AX7" sqref="B7:AX7"/>
+      <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="16.5"/>
@@ -1346,62 +1346,46 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="P3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="Q3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
@@ -1458,22 +1442,22 @@
       <c r="BW3" s="7"/>
       <c r="BX3" s="11">
         <f>IF(B3="","",COUNTIF(B3:BW3,"P"))</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BY3" s="12">
         <f>IF(B3="","",COUNTIF(B3:BW3,"B"))</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BZ3" s="12"/>
       <c r="CA3" s="13">
         <f>IF(B3="","",BX3+BY3)</f>
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:79" ht="17.25" customHeight="1" thickBot="1">
       <c r="A5" s="1"/>
       <c r="B5" s="21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
@@ -1784,7 +1768,7 @@
         <v>2</v>
       </c>
       <c r="BZ6" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CA6" s="14" t="s">
         <v>3</v>
@@ -1794,55 +1778,153 @@
       <c r="A7" s="6">
         <v>1</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
-      <c r="AB7" s="2"/>
-      <c r="AC7" s="2"/>
-      <c r="AD7" s="2"/>
-      <c r="AE7" s="2"/>
-      <c r="AF7" s="2"/>
-      <c r="AG7" s="2"/>
-      <c r="AH7" s="2"/>
-      <c r="AI7" s="2"/>
-      <c r="AJ7" s="2"/>
-      <c r="AK7" s="2"/>
-      <c r="AL7" s="2"/>
-      <c r="AM7" s="2"/>
-      <c r="AN7" s="2"/>
-      <c r="AO7" s="2"/>
-      <c r="AP7" s="2"/>
-      <c r="AQ7" s="2"/>
-      <c r="AR7" s="2"/>
-      <c r="AS7" s="2"/>
-      <c r="AT7" s="2"/>
-      <c r="AU7" s="2"/>
-      <c r="AV7" s="2"/>
-      <c r="AW7" s="2"/>
-      <c r="AX7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX7" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="AY7" s="2"/>
       <c r="AZ7" s="2"/>
       <c r="BA7" s="2"/>
@@ -1868,21 +1950,21 @@
       <c r="BU7" s="2"/>
       <c r="BV7" s="2"/>
       <c r="BW7" s="7"/>
-      <c r="BX7" s="11" t="str">
+      <c r="BX7" s="11">
         <f>IF(B7="","",COUNTIF(B7:BW7,"P"))</f>
-        <v/>
-      </c>
-      <c r="BY7" s="12" t="str">
+        <v>20</v>
+      </c>
+      <c r="BY7" s="12">
         <f>IF(B7="","",COUNTIF(B7:BW7,"B"))</f>
-        <v/>
-      </c>
-      <c r="BZ7" s="12" t="str">
+        <v>25</v>
+      </c>
+      <c r="BZ7" s="12">
         <f>IF(B7="","",COUNTIF(B7:BW7,"T"))</f>
-        <v/>
-      </c>
-      <c r="CA7" s="13" t="str">
+        <v>4</v>
+      </c>
+      <c r="CA7" s="13">
         <f>IF(B7="","",SUM(BX7:BZ7))</f>
-        <v/>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:79" ht="17.25" customHeight="1" thickBot="1">
@@ -2243,11 +2325,11 @@
       </c>
       <c r="L12" s="2" t="str">
         <f>IF(AI!M25="","",AI!M25)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="M12" s="2" t="str">
         <f>IF(AI!N25="","",AI!N25)</f>
-        <v>N</v>
+        <v>P</v>
       </c>
       <c r="N12" s="2" t="str">
         <f>IF(AI!O25="","",AI!O25)</f>
@@ -2255,35 +2337,35 @@
       </c>
       <c r="O12" s="2" t="str">
         <f>IF(AI!P25="","",AI!P25)</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="P12" s="2" t="str">
         <f>IF(AI!Q25="","",AI!Q25)</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="Q12" s="2" t="str">
         <f>IF(AI!R25="","",AI!R25)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="R12" s="2" t="str">
         <f>IF(AI!S25="","",AI!S25)</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="S12" s="2" t="str">
         <f>IF(AI!T25="","",AI!T25)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="T12" s="2" t="str">
         <f>IF(AI!U25="","",AI!U25)</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="U12" s="2" t="str">
         <f>IF(AI!V25="","",AI!V25)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="V12" s="2" t="str">
         <f>IF(AI!W25="","",AI!W25)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="W12" s="2" t="str">
         <f>IF(AI!X25="","",AI!X25)</f>
@@ -2866,43 +2948,43 @@
       </c>
       <c r="L16" s="2" t="str">
         <f>IF(AI!M26="","",AI!M26)</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="M16" s="2" t="str">
         <f>IF(AI!N26="","",AI!N26)</f>
-        <v>N</v>
+        <v>L</v>
       </c>
       <c r="N16" s="2" t="str">
         <f>IF(AI!O26="","",AI!O26)</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="O16" s="2" t="str">
         <f>IF(AI!P26="","",AI!P26)</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="P16" s="2" t="str">
         <f>IF(AI!Q26="","",AI!Q26)</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="Q16" s="2" t="str">
         <f>IF(AI!R26="","",AI!R26)</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="R16" s="2" t="str">
         <f>IF(AI!S26="","",AI!S26)</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="S16" s="2" t="str">
         <f>IF(AI!T26="","",AI!T26)</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="T16" s="2" t="str">
         <f>IF(AI!U26="","",AI!U26)</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="U16" s="2" t="str">
         <f>IF(AI!V26="","",AI!V26)</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="V16" s="2" t="str">
         <f>IF(AI!W26="","",AI!W26)</f>
@@ -3126,12 +3208,12 @@
       </c>
       <c r="BY16" s="12">
         <f>IF(B16="","",COUNTIF(B16:BW16,"L"))</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BZ16" s="12"/>
       <c r="CA16" s="13">
         <f>IF(B16="","",BX16-BY16)</f>
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:79" ht="17.25" customHeight="1" thickBot="1">
@@ -4104,8 +4186,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="104" width="3.125" style="18" customWidth="1"/>
-    <col min="105" max="16384" width="3.125" style="18"/>
+    <col min="1" max="113" width="3.125" style="18" customWidth="1"/>
+    <col min="114" max="16384" width="3.125" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:72">
@@ -4333,19 +4415,19 @@
       </c>
       <c r="D2" s="15" t="str">
         <f>IF(DATA!C3="","",DATA!C3)</f>
-        <v>T</v>
+        <v>B</v>
       </c>
       <c r="E2" s="15" t="str">
         <f>IF(DATA!D3="","",DATA!D3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="F2" s="15" t="str">
         <f>IF(DATA!E3="","",DATA!E3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="G2" s="15" t="str">
         <f>IF(DATA!F3="","",DATA!F3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="H2" s="15" t="str">
         <f>IF(DATA!G3="","",DATA!G3)</f>
@@ -4353,7 +4435,7 @@
       </c>
       <c r="I2" s="15" t="str">
         <f>IF(DATA!H3="","",DATA!H3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="J2" s="15" t="str">
         <f>IF(DATA!I3="","",DATA!I3)</f>
@@ -4361,11 +4443,11 @@
       </c>
       <c r="K2" s="15" t="str">
         <f>IF(DATA!J3="","",DATA!J3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="L2" s="15" t="str">
         <f>IF(DATA!K3="","",DATA!K3)</f>
-        <v>T</v>
+        <v>P</v>
       </c>
       <c r="M2" s="15" t="str">
         <f>IF(DATA!L3="","",DATA!L3)</f>
@@ -4373,39 +4455,39 @@
       </c>
       <c r="N2" s="15" t="str">
         <f>IF(DATA!M3="","",DATA!M3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="O2" s="15" t="str">
         <f>IF(DATA!N3="","",DATA!N3)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="P2" s="15" t="str">
         <f>IF(DATA!O3="","",DATA!O3)</f>
-        <v>T</v>
+        <v/>
       </c>
       <c r="Q2" s="15" t="str">
         <f>IF(DATA!P3="","",DATA!P3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="R2" s="15" t="str">
         <f>IF(DATA!Q3="","",DATA!Q3)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="S2" s="15" t="str">
         <f>IF(DATA!R3="","",DATA!R3)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="T2" s="15" t="str">
         <f>IF(DATA!S3="","",DATA!S3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="U2" s="15" t="str">
         <f>IF(DATA!T3="","",DATA!T3)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="V2" s="15" t="str">
         <f>IF(DATA!U3="","",DATA!U3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="W2" s="15" t="str">
         <f>IF(DATA!V3="","",DATA!V3)</f>
@@ -4627,7 +4709,7 @@
       </c>
       <c r="E3" s="15">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" s="15">
         <f t="shared" si="0"/>
@@ -4635,67 +4717,67 @@
       </c>
       <c r="G3" s="15">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H3" s="15">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I3" s="15">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J3" s="15">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K3" s="15">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L3" s="15">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M3" s="15">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N3" s="15">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="O3" s="15">
+        <v>7</v>
+      </c>
+      <c r="O3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="P3" s="15">
+        <v/>
+      </c>
+      <c r="P3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="Q3" s="15">
+        <v/>
+      </c>
+      <c r="Q3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="R3" s="15">
+        <v/>
+      </c>
+      <c r="R3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="S3" s="15">
+        <v/>
+      </c>
+      <c r="S3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="T3" s="15">
+        <v/>
+      </c>
+      <c r="T3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="U3" s="15">
+        <v/>
+      </c>
+      <c r="U3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="V3" s="15">
+        <v/>
+      </c>
+      <c r="V3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v/>
       </c>
       <c r="W3" s="15" t="str">
         <f t="shared" si="0"/>
@@ -4915,15 +4997,15 @@
       <c r="D4" s="15">
         <f t="shared" ref="D4:AI4" si="3">IF(D2="","",
 IF(D2="B",C4+1,C4))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="15">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F4" s="15">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" s="15">
         <f t="shared" si="3"/>
@@ -4935,59 +5017,59 @@
       </c>
       <c r="I4" s="15">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J4" s="15">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K4" s="15">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L4" s="15">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M4" s="15">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N4" s="15">
         <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="O4" s="15">
+        <v>4</v>
+      </c>
+      <c r="O4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="P4" s="15">
+        <v/>
+      </c>
+      <c r="P4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="Q4" s="15">
+        <v/>
+      </c>
+      <c r="Q4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="R4" s="15">
+        <v/>
+      </c>
+      <c r="R4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="S4" s="15">
+        <v/>
+      </c>
+      <c r="S4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="T4" s="15">
+        <v/>
+      </c>
+      <c r="T4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="U4" s="15">
+        <v/>
+      </c>
+      <c r="U4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="V4" s="15">
+        <v/>
+      </c>
+      <c r="V4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v/>
       </c>
       <c r="W4" s="15" t="str">
         <f t="shared" si="3"/>
@@ -5202,79 +5284,79 @@
       </c>
       <c r="D5" s="15">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="15">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="F5" s="15">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="15">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="15">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" s="15">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J5" s="15">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K5" s="15">
         <f t="shared" si="5"/>
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="L5" s="15">
         <f t="shared" si="5"/>
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M5" s="15">
         <f t="shared" si="5"/>
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="N5" s="15">
         <f t="shared" si="5"/>
-        <v>-1</v>
-      </c>
-      <c r="O5" s="15">
+        <v>3</v>
+      </c>
+      <c r="O5" s="15" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P5" s="15">
+        <v/>
+      </c>
+      <c r="P5" s="15" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q5" s="15">
+        <v/>
+      </c>
+      <c r="Q5" s="15" t="str">
         <f t="shared" si="5"/>
-        <v>-1</v>
-      </c>
-      <c r="R5" s="15">
+        <v/>
+      </c>
+      <c r="R5" s="15" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S5" s="15">
+        <v/>
+      </c>
+      <c r="S5" s="15" t="str">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="T5" s="15">
+        <v/>
+      </c>
+      <c r="T5" s="15" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U5" s="15">
+        <v/>
+      </c>
+      <c r="U5" s="15" t="str">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="V5" s="15">
+        <v/>
+      </c>
+      <c r="V5" s="15" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="W5" s="15" t="str">
         <f t="shared" si="5"/>
@@ -5591,59 +5673,59 @@
       </c>
       <c r="J7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>N</v>
+        <v>B</v>
       </c>
       <c r="K7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>N</v>
+        <v>B</v>
       </c>
       <c r="L7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="M7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="N7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="O7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="P7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="Q7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="R7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="S7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="T7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="U7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="V7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="W7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="X7" s="16" t="str">
         <f t="shared" si="8"/>
@@ -5878,7 +5960,7 @@
         <f t="shared" ref="I8:AN8" si="10">IF(H2="","",
 IF(G2=H2,H2,
 IF(G2&lt;&gt;H2,G2)))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="J8" s="15" t="str">
         <f t="shared" si="10"/>
@@ -5886,7 +5968,7 @@
       </c>
       <c r="K8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="L8" s="15" t="str">
         <f t="shared" si="10"/>
@@ -5894,11 +5976,11 @@
       </c>
       <c r="M8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="N8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>T</v>
+        <v>P</v>
       </c>
       <c r="O8" s="15" t="str">
         <f t="shared" si="10"/>
@@ -5906,35 +5988,35 @@
       </c>
       <c r="P8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="Q8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="R8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>T</v>
+        <v/>
       </c>
       <c r="S8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="T8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="U8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="V8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="W8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="X8" s="15" t="str">
         <f t="shared" si="10"/>
@@ -6176,15 +6258,15 @@
       </c>
       <c r="K9" s="15" t="str">
         <f t="shared" si="12"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="L9" s="15" t="str">
         <f t="shared" si="12"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="M9" s="15" t="str">
         <f t="shared" si="12"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="N9" s="15" t="str">
         <f t="shared" si="12"/>
@@ -6198,23 +6280,23 @@
       </c>
       <c r="P9" s="15" t="str">
         <f t="shared" si="13"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="Q9" s="15" t="str">
         <f t="shared" si="13"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="R9" s="15" t="str">
         <f t="shared" si="13"/>
-        <v>T</v>
+        <v/>
       </c>
       <c r="S9" s="15" t="str">
         <f t="shared" si="13"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="T9" s="15" t="str">
         <f t="shared" si="13"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="U9" s="15" t="str">
         <f t="shared" ref="U9:AZ9" si="14">IF(T2="","",
@@ -6222,15 +6304,15 @@
 IF(AND(C2=I2,I2&lt;&gt;O2),IF(O2="P","B","P"),
 IF(AND(C2&lt;&gt;I2,I2=O2),C2,
 IF(AND(C2&lt;&gt;I2,I2&lt;&gt;O2),O2)))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="V9" s="15" t="str">
         <f t="shared" si="14"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="W9" s="15" t="str">
         <f t="shared" si="14"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="X9" s="15" t="str">
         <f t="shared" si="14"/>
@@ -6544,15 +6626,15 @@
       </c>
       <c r="I11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="J11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v>N</v>
+        <v>L</v>
       </c>
       <c r="K11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v>N</v>
+        <v>L</v>
       </c>
       <c r="L11" s="16" t="str">
         <f t="shared" si="16"/>
@@ -6560,7 +6642,7 @@
       </c>
       <c r="M11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="N11" s="16" t="str">
         <f t="shared" si="16"/>
@@ -6568,35 +6650,35 @@
       </c>
       <c r="O11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="P11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="Q11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="R11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="S11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="T11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="U11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="V11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="W11" s="16" t="str">
         <f t="shared" si="16"/>
@@ -6850,11 +6932,11 @@
       </c>
       <c r="L12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="M12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="N12" s="15" t="str">
         <f t="shared" si="19"/>
@@ -6862,35 +6944,35 @@
       </c>
       <c r="O12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="P12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="Q12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="R12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="S12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="T12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="U12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="V12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="W12" s="15" t="str">
         <f t="shared" si="19"/>
@@ -7132,7 +7214,7 @@
       </c>
       <c r="I13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="J13" s="16" t="str">
         <f t="shared" si="22"/>
@@ -7148,43 +7230,43 @@
       </c>
       <c r="M13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="N13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="O13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="P13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="Q13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="R13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="S13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="T13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="U13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="V13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="W13" s="16" t="str">
         <f t="shared" si="22"/>
@@ -7518,11 +7600,11 @@
 IF(M7="N","N",
 IF(COUNTIF(I11:L11,"W")&gt;=2,M7,
 IF(COUNTIF(I11:L11,"W")&lt;2,IF(M7="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="N15" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="O15" s="15" t="str">
         <f t="shared" si="26"/>
@@ -7530,38 +7612,38 @@
       </c>
       <c r="P15" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="Q15" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="R15" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="S15" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="T15" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="U15" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="V15" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="W15" s="15" t="str">
         <f t="shared" ref="W15:AF17" si="27">IF(W7="","",
 IF(W7="N","N",
 IF(COUNTIF(S11:V11,"W")&gt;=2,W7,
 IF(COUNTIF(S11:V11,"W")&lt;2,IF(W7="P","B","P")))))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="X15" s="15" t="str">
         <f t="shared" si="27"/>
@@ -7820,47 +7902,47 @@
       </c>
       <c r="M16" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="N16" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>T</v>
+        <v>B</v>
       </c>
       <c r="O16" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="P16" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="Q16" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="R16" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="S16" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="T16" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="U16" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="V16" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="W16" s="15" t="str">
         <f t="shared" si="27"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="X16" s="15" t="str">
         <f t="shared" si="27"/>
@@ -8111,43 +8193,43 @@
       </c>
       <c r="N17" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="O17" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="P17" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="Q17" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="R17" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="S17" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="T17" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="U17" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="V17" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="W17" s="15" t="str">
         <f t="shared" si="27"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="X17" s="15" t="str">
         <f t="shared" si="27"/>
@@ -8473,7 +8555,7 @@
       </c>
       <c r="M19" s="15" t="str">
         <f t="shared" si="34"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="N19" s="15" t="str">
         <f t="shared" si="34"/>
@@ -8481,35 +8563,35 @@
       </c>
       <c r="O19" s="15" t="str">
         <f t="shared" si="34"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="P19" s="15" t="str">
         <f t="shared" si="34"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="Q19" s="15" t="str">
         <f t="shared" si="34"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="R19" s="15" t="str">
         <f t="shared" si="34"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="S19" s="15" t="str">
         <f t="shared" si="34"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="T19" s="15" t="str">
         <f t="shared" si="34"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="U19" s="15" t="str">
         <f t="shared" si="34"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="V19" s="15" t="str">
         <f t="shared" si="34"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="W19" s="15" t="str">
         <f t="shared" si="34"/>
@@ -8767,43 +8849,43 @@
       </c>
       <c r="M20" s="15" t="str">
         <f t="shared" si="37"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="N20" s="15" t="str">
         <f t="shared" si="37"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="O20" s="15" t="str">
         <f t="shared" si="37"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="P20" s="15" t="str">
         <f t="shared" si="37"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="Q20" s="15" t="str">
         <f t="shared" si="37"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="R20" s="15" t="str">
         <f t="shared" si="37"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="S20" s="15" t="str">
         <f t="shared" si="37"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="T20" s="15" t="str">
         <f t="shared" si="37"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="U20" s="15" t="str">
         <f t="shared" si="37"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="V20" s="15" t="str">
         <f t="shared" si="37"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="W20" s="15" t="str">
         <f t="shared" si="37"/>
@@ -9069,35 +9151,35 @@
       </c>
       <c r="O21" s="15" t="str">
         <f t="shared" si="40"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="P21" s="15" t="str">
         <f t="shared" si="40"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="Q21" s="15" t="str">
         <f t="shared" si="40"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="R21" s="15" t="str">
         <f t="shared" si="40"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="S21" s="15" t="str">
         <f t="shared" si="40"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="T21" s="15" t="str">
         <f t="shared" si="40"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="U21" s="15" t="str">
         <f t="shared" si="40"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="V21" s="15" t="str">
         <f t="shared" si="40"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="W21" s="15" t="str">
         <f t="shared" si="40"/>
@@ -9428,11 +9510,11 @@
       </c>
       <c r="M23" s="16" t="str">
         <f t="shared" si="43"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="N23" s="16" t="str">
         <f t="shared" si="43"/>
-        <v>N</v>
+        <v>B</v>
       </c>
       <c r="O23" s="16" t="str">
         <f t="shared" si="43"/>
@@ -9440,35 +9522,35 @@
       </c>
       <c r="P23" s="16" t="str">
         <f t="shared" si="43"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="Q23" s="16" t="str">
         <f t="shared" si="43"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="R23" s="16" t="str">
         <f t="shared" si="43"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="S23" s="16" t="str">
         <f t="shared" si="43"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="T23" s="16" t="str">
         <f t="shared" si="43"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="U23" s="16" t="str">
         <f t="shared" si="43"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="V23" s="16" t="str">
         <f t="shared" si="43"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="W23" s="16" t="str">
         <f t="shared" si="43"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="X23" s="16" t="str">
         <f t="shared" si="43"/>
@@ -9720,43 +9802,43 @@
       </c>
       <c r="M24" s="16" t="str">
         <f t="shared" si="45"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="N24" s="16" t="str">
         <f t="shared" si="45"/>
-        <v>N</v>
+        <v>W</v>
       </c>
       <c r="O24" s="16" t="str">
         <f t="shared" si="45"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="P24" s="16" t="str">
         <f t="shared" si="45"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="Q24" s="16" t="str">
         <f t="shared" si="45"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="R24" s="16" t="str">
         <f t="shared" si="45"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="S24" s="16" t="str">
         <f t="shared" si="45"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="T24" s="16" t="str">
         <f t="shared" si="45"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="U24" s="16" t="str">
         <f t="shared" si="45"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="V24" s="16" t="str">
         <f t="shared" si="45"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="W24" s="16" t="str">
         <f t="shared" si="45"/>
@@ -10019,11 +10101,11 @@
       </c>
       <c r="M25" s="19" t="str">
         <f t="shared" si="48"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="N25" s="19" t="str">
         <f t="shared" si="48"/>
-        <v>N</v>
+        <v>P</v>
       </c>
       <c r="O25" s="19" t="str">
         <f t="shared" si="48"/>
@@ -10031,35 +10113,35 @@
       </c>
       <c r="P25" s="19" t="str">
         <f t="shared" si="48"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="Q25" s="19" t="str">
         <f t="shared" si="48"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="R25" s="19" t="str">
         <f t="shared" si="48"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="S25" s="19" t="str">
         <f t="shared" si="48"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="T25" s="19" t="str">
         <f t="shared" si="48"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="U25" s="19" t="str">
         <f t="shared" si="48"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="V25" s="19" t="str">
         <f t="shared" si="48"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="W25" s="19" t="str">
         <f t="shared" si="48"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="X25" s="19" t="str">
         <f t="shared" si="48"/>
@@ -10313,43 +10395,43 @@
       </c>
       <c r="M26" s="16" t="str">
         <f t="shared" si="51"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="N26" s="16" t="str">
         <f t="shared" si="51"/>
-        <v>N</v>
+        <v>L</v>
       </c>
       <c r="O26" s="16" t="str">
         <f t="shared" si="51"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="P26" s="16" t="str">
         <f t="shared" si="51"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="Q26" s="16" t="str">
         <f t="shared" si="51"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="R26" s="16" t="str">
         <f t="shared" si="51"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="S26" s="16" t="str">
         <f t="shared" si="51"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="T26" s="16" t="str">
         <f t="shared" si="51"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="U26" s="16" t="str">
         <f t="shared" si="51"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="V26" s="16" t="str">
         <f t="shared" si="51"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="W26" s="16" t="str">
         <f t="shared" si="51"/>

--- a/AUTO - 복사본.xlsx
+++ b/AUTO - 복사본.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corea\Desktop\holdem-auto-trader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD175EAF-6EA9-47CB-95FF-759434FD36CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1BBB49-962D-45B6-AD14-3EE6235063C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="15">
   <si>
     <t>본매 PB</t>
   </si>
@@ -35,10 +35,10 @@
     <t>S</t>
   </si>
   <si>
-    <t>본매 PTB</t>
+    <t>T</t>
   </si>
   <si>
-    <t>T</t>
+    <t>본매 PTB</t>
   </si>
   <si>
     <t>예상 PICK</t>
@@ -1343,10 +1343,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>2</v>
@@ -1358,19 +1358,19 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="J3" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>2</v>
@@ -1378,8 +1378,12 @@
       <c r="M3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
+      <c r="N3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
@@ -1442,22 +1446,22 @@
       <c r="BW3" s="7"/>
       <c r="BX3" s="11">
         <f>IF(B3="","",COUNTIF(B3:BW3,"P"))</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BY3" s="12">
         <f>IF(B3="","",COUNTIF(B3:BW3,"B"))</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BZ3" s="12"/>
       <c r="CA3" s="13">
         <f>IF(B3="","",BX3+BY3)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:79" ht="17.25" customHeight="1" thickBot="1">
       <c r="A5" s="1"/>
       <c r="B5" s="21" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
@@ -1768,7 +1772,7 @@
         <v>2</v>
       </c>
       <c r="BZ6" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CA6" s="14" t="s">
         <v>3</v>
@@ -1827,7 +1831,7 @@
         <v>2</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S7" s="2" t="s">
         <v>2</v>
@@ -1878,10 +1882,10 @@
         <v>1</v>
       </c>
       <c r="AI7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK7" s="2" t="s">
         <v>2</v>
@@ -1923,7 +1927,7 @@
         <v>2</v>
       </c>
       <c r="AX7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY7" s="2"/>
       <c r="AZ7" s="2"/>
@@ -2337,11 +2341,11 @@
       </c>
       <c r="O12" s="2" t="str">
         <f>IF(AI!P25="","",AI!P25)</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="P12" s="2" t="str">
         <f>IF(AI!Q25="","",AI!Q25)</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="Q12" s="2" t="str">
         <f>IF(AI!R25="","",AI!R25)</f>
@@ -2956,11 +2960,11 @@
       </c>
       <c r="N16" s="2" t="str">
         <f>IF(AI!O26="","",AI!O26)</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="O16" s="2" t="str">
         <f>IF(AI!P26="","",AI!P26)</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="P16" s="2" t="str">
         <f>IF(AI!Q26="","",AI!Q26)</f>
@@ -3208,12 +3212,12 @@
       </c>
       <c r="BY16" s="12">
         <f>IF(B16="","",COUNTIF(B16:BW16,"L"))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BZ16" s="12"/>
       <c r="CA16" s="13">
         <f>IF(B16="","",BX16-BY16)</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="19" spans="1:79" ht="17.25" customHeight="1" thickBot="1">
@@ -4186,8 +4190,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="113" width="3.125" style="18" customWidth="1"/>
-    <col min="114" max="16384" width="3.125" style="18"/>
+    <col min="1" max="174" width="3.125" style="18" customWidth="1"/>
+    <col min="175" max="16384" width="3.125" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:72">
@@ -4411,11 +4415,11 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15" t="str">
         <f>IF(DATA!B3="","",DATA!B3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="D2" s="15" t="str">
         <f>IF(DATA!C3="","",DATA!C3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="E2" s="15" t="str">
         <f>IF(DATA!D3="","",DATA!D3)</f>
@@ -4431,23 +4435,23 @@
       </c>
       <c r="H2" s="15" t="str">
         <f>IF(DATA!G3="","",DATA!G3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="I2" s="15" t="str">
         <f>IF(DATA!H3="","",DATA!H3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="J2" s="15" t="str">
         <f>IF(DATA!I3="","",DATA!I3)</f>
-        <v>T</v>
+        <v>P</v>
       </c>
       <c r="K2" s="15" t="str">
         <f>IF(DATA!J3="","",DATA!J3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="L2" s="15" t="str">
         <f>IF(DATA!K3="","",DATA!K3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="M2" s="15" t="str">
         <f>IF(DATA!L3="","",DATA!L3)</f>
@@ -4459,11 +4463,11 @@
       </c>
       <c r="O2" s="15" t="str">
         <f>IF(DATA!N3="","",DATA!N3)</f>
-        <v/>
+        <v>T</v>
       </c>
       <c r="P2" s="15" t="str">
         <f>IF(DATA!O3="","",DATA!O3)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="Q2" s="15" t="str">
         <f>IF(DATA!P3="","",DATA!P3)</f>
@@ -4700,7 +4704,7 @@
       <c r="C3" s="15">
         <f>IF(C2="","",
 IF(C2="P",1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="15">
         <f t="shared" ref="D3:AI3" si="0">IF(D2="","",
@@ -4721,39 +4725,39 @@
       </c>
       <c r="H3" s="15">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I3" s="15">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J3" s="15">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K3" s="15">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L3" s="15">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M3" s="15">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N3" s="15">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="O3" s="15" t="str">
+        <v>4</v>
+      </c>
+      <c r="O3" s="15">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P3" s="15" t="str">
+        <v>4</v>
+      </c>
+      <c r="P3" s="15">
         <f t="shared" si="0"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="Q3" s="15" t="str">
         <f t="shared" si="0"/>
@@ -4992,7 +4996,7 @@
       <c r="C4" s="15">
         <f>IF(C2="","",
 IF(C2="B",1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="15">
         <f t="shared" ref="D4:AI4" si="3">IF(D2="","",
@@ -5013,39 +5017,39 @@
       </c>
       <c r="H4" s="15">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I4" s="15">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J4" s="15">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K4" s="15">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L4" s="15">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M4" s="15">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N4" s="15">
         <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="O4" s="15" t="str">
+        <v>8</v>
+      </c>
+      <c r="O4" s="15">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="P4" s="15" t="str">
+        <v>8</v>
+      </c>
+      <c r="P4" s="15">
         <f t="shared" si="3"/>
-        <v/>
+        <v>9</v>
       </c>
       <c r="Q4" s="15" t="str">
         <f t="shared" si="3"/>
@@ -5280,7 +5284,7 @@
       <c r="B5" s="15"/>
       <c r="C5" s="15">
         <f t="shared" ref="C5:AH5" si="5">IF(C3="","",C3-C4)</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D5" s="15">
         <f t="shared" si="5"/>
@@ -5300,39 +5304,39 @@
       </c>
       <c r="H5" s="15">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" s="15">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="J5" s="15">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K5" s="15">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="L5" s="15">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>-2</v>
       </c>
       <c r="M5" s="15">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>-3</v>
       </c>
       <c r="N5" s="15">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="O5" s="15" t="str">
+        <v>-4</v>
+      </c>
+      <c r="O5" s="15">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="P5" s="15" t="str">
+        <v>-4</v>
+      </c>
+      <c r="P5" s="15">
         <f t="shared" si="5"/>
-        <v/>
+        <v>-5</v>
       </c>
       <c r="Q5" s="15" t="str">
         <f t="shared" si="5"/>
@@ -5669,39 +5673,39 @@
         <f t="shared" ref="I7:AN7" si="8">IF(H2="","",
 IF(H5&gt;0,"B",
 IF(H5&lt;0,"P","N")))</f>
-        <v>B</v>
+        <v>N</v>
       </c>
       <c r="J7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="K7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>B</v>
+        <v>N</v>
       </c>
       <c r="L7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="M7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="N7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="O7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="P7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="Q7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="R7" s="16" t="str">
         <f t="shared" si="8"/>
@@ -5964,23 +5968,23 @@
       </c>
       <c r="J8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="K8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="L8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>T</v>
+        <v>P</v>
       </c>
       <c r="M8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="N8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="O8" s="15" t="str">
         <f t="shared" si="10"/>
@@ -5988,11 +5992,11 @@
       </c>
       <c r="P8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="Q8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="R8" s="15" t="str">
         <f t="shared" si="10"/>
@@ -6250,11 +6254,11 @@
       <c r="I9" s="15" t="str">
         <f t="shared" ref="I9:N9" si="12">IF(H2="","",
 IF(C2="P","B","P"))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="J9" s="15" t="str">
         <f t="shared" si="12"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="K9" s="15" t="str">
         <f t="shared" si="12"/>
@@ -6270,21 +6274,21 @@
       </c>
       <c r="N9" s="15" t="str">
         <f t="shared" si="12"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="O9" s="15" t="str">
         <f t="shared" ref="O9:T9" si="13">IF(N2="","",
 IF(C2=I2,IF(I2="P","B","P"),
 IF(C2&lt;&gt;I2,I2)))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="P9" s="15" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="Q9" s="15" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="R9" s="15" t="str">
         <f t="shared" si="13"/>
@@ -6626,15 +6630,15 @@
       </c>
       <c r="I11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v>L</v>
+        <v>N</v>
       </c>
       <c r="J11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="K11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v>L</v>
+        <v>N</v>
       </c>
       <c r="L11" s="16" t="str">
         <f t="shared" si="16"/>
@@ -6642,19 +6646,19 @@
       </c>
       <c r="M11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="N11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="O11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="P11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="Q11" s="16" t="str">
         <f t="shared" si="16"/>
@@ -6920,7 +6924,7 @@
       </c>
       <c r="I12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="J12" s="15" t="str">
         <f t="shared" si="19"/>
@@ -6936,19 +6940,19 @@
       </c>
       <c r="M12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="N12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="O12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="P12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="Q12" s="15" t="str">
         <f t="shared" si="19"/>
@@ -7222,11 +7226,11 @@
       </c>
       <c r="K13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="L13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="M13" s="16" t="str">
         <f t="shared" si="22"/>
@@ -7234,15 +7238,15 @@
       </c>
       <c r="N13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="O13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="P13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="Q13" s="16" t="str">
         <f t="shared" si="22"/>
@@ -7600,11 +7604,11 @@
 IF(M7="N","N",
 IF(COUNTIF(I11:L11,"W")&gt;=2,M7,
 IF(COUNTIF(I11:L11,"W")&lt;2,IF(M7="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="N15" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="O15" s="15" t="str">
         <f t="shared" si="26"/>
@@ -7612,11 +7616,11 @@
       </c>
       <c r="P15" s="15" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="Q15" s="15" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="R15" s="15" t="str">
         <f t="shared" si="26"/>
@@ -7910,15 +7914,15 @@
       </c>
       <c r="O16" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="P16" s="15" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="Q16" s="15" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="R16" s="15" t="str">
         <f t="shared" si="26"/>
@@ -8193,19 +8197,19 @@
       </c>
       <c r="N17" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="O17" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="P17" s="15" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="Q17" s="15" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="R17" s="15" t="str">
         <f t="shared" si="26"/>
@@ -8555,19 +8559,19 @@
       </c>
       <c r="M19" s="15" t="str">
         <f t="shared" si="34"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="N19" s="15" t="str">
         <f t="shared" si="34"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="O19" s="15" t="str">
         <f t="shared" si="34"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="P19" s="15" t="str">
         <f t="shared" si="34"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="Q19" s="15" t="str">
         <f t="shared" si="34"/>
@@ -8857,11 +8861,11 @@
       </c>
       <c r="O20" s="15" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="P20" s="15" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="Q20" s="15" t="str">
         <f t="shared" si="37"/>
@@ -9147,15 +9151,15 @@
       </c>
       <c r="N21" s="15" t="str">
         <f t="shared" si="40"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="O21" s="15" t="str">
         <f t="shared" si="40"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="P21" s="15" t="str">
         <f t="shared" si="40"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="Q21" s="15" t="str">
         <f t="shared" si="40"/>
@@ -9522,11 +9526,11 @@
       </c>
       <c r="P23" s="16" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="Q23" s="16" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="R23" s="16" t="str">
         <f t="shared" si="43"/>
@@ -9810,11 +9814,11 @@
       </c>
       <c r="O24" s="16" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="P24" s="16" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="Q24" s="16" t="str">
         <f t="shared" si="45"/>
@@ -10113,11 +10117,11 @@
       </c>
       <c r="P25" s="19" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="Q25" s="19" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="R25" s="19" t="str">
         <f t="shared" si="48"/>
@@ -10403,11 +10407,11 @@
       </c>
       <c r="O26" s="16" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="P26" s="16" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="Q26" s="16" t="str">
         <f t="shared" si="51"/>

--- a/AUTO - 복사본.xlsx
+++ b/AUTO - 복사본.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corea\Desktop\holdem-auto-trader\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\holdem-auto-trader-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1BBB49-962D-45B6-AD14-3EE6235063C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1638B96C-0CEB-4D40-92BE-A63F839D6057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19770" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="15">
   <si>
     <t>본매 PB</t>
   </si>
@@ -1352,38 +1352,30 @@
         <v>2</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="K3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
@@ -1446,16 +1438,16 @@
       <c r="BW3" s="7"/>
       <c r="BX3" s="11">
         <f>IF(B3="","",COUNTIF(B3:BW3,"P"))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BY3" s="12">
         <f>IF(B3="","",COUNTIF(B3:BW3,"B"))</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BZ3" s="12"/>
       <c r="CA3" s="13">
         <f>IF(B3="","",BX3+BY3)</f>
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:79" ht="17.25" customHeight="1" thickBot="1">
@@ -2329,23 +2321,23 @@
       </c>
       <c r="L12" s="2" t="str">
         <f>IF(AI!M25="","",AI!M25)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="M12" s="2" t="str">
         <f>IF(AI!N25="","",AI!N25)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="N12" s="2" t="str">
         <f>IF(AI!O25="","",AI!O25)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="O12" s="2" t="str">
         <f>IF(AI!P25="","",AI!P25)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="P12" s="2" t="str">
         <f>IF(AI!Q25="","",AI!Q25)</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="Q12" s="2" t="str">
         <f>IF(AI!R25="","",AI!R25)</f>
@@ -2952,19 +2944,19 @@
       </c>
       <c r="L16" s="2" t="str">
         <f>IF(AI!M26="","",AI!M26)</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="M16" s="2" t="str">
         <f>IF(AI!N26="","",AI!N26)</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="N16" s="2" t="str">
         <f>IF(AI!O26="","",AI!O26)</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="O16" s="2" t="str">
         <f>IF(AI!P26="","",AI!P26)</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="P16" s="2" t="str">
         <f>IF(AI!Q26="","",AI!Q26)</f>
@@ -3208,16 +3200,16 @@
       </c>
       <c r="BX16" s="11">
         <f>IF(B16="","",COUNTIF(B16:BW16,"W"))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY16" s="12">
         <f>IF(B16="","",COUNTIF(B16:BW16,"L"))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BZ16" s="12"/>
       <c r="CA16" s="13">
         <f>IF(B16="","",BX16-BY16)</f>
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:79" ht="17.25" customHeight="1" thickBot="1">
@@ -4427,7 +4419,7 @@
       </c>
       <c r="F2" s="15" t="str">
         <f>IF(DATA!E3="","",DATA!E3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="G2" s="15" t="str">
         <f>IF(DATA!F3="","",DATA!F3)</f>
@@ -4435,7 +4427,7 @@
       </c>
       <c r="H2" s="15" t="str">
         <f>IF(DATA!G3="","",DATA!G3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="I2" s="15" t="str">
         <f>IF(DATA!H3="","",DATA!H3)</f>
@@ -4443,31 +4435,31 @@
       </c>
       <c r="J2" s="15" t="str">
         <f>IF(DATA!I3="","",DATA!I3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="K2" s="15" t="str">
         <f>IF(DATA!J3="","",DATA!J3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="L2" s="15" t="str">
         <f>IF(DATA!K3="","",DATA!K3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="M2" s="15" t="str">
         <f>IF(DATA!L3="","",DATA!L3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="N2" s="15" t="str">
         <f>IF(DATA!M3="","",DATA!M3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="O2" s="15" t="str">
         <f>IF(DATA!N3="","",DATA!N3)</f>
-        <v>T</v>
+        <v/>
       </c>
       <c r="P2" s="15" t="str">
         <f>IF(DATA!O3="","",DATA!O3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="Q2" s="15" t="str">
         <f>IF(DATA!P3="","",DATA!P3)</f>
@@ -4717,11 +4709,11 @@
       </c>
       <c r="F3" s="15">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" s="15">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H3" s="15">
         <f t="shared" si="0"/>
@@ -4733,7 +4725,7 @@
       </c>
       <c r="J3" s="15">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K3" s="15">
         <f t="shared" si="0"/>
@@ -4741,23 +4733,23 @@
       </c>
       <c r="L3" s="15">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="M3" s="15">
+        <v>5</v>
+      </c>
+      <c r="M3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="N3" s="15">
+        <v/>
+      </c>
+      <c r="N3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="O3" s="15">
+        <v/>
+      </c>
+      <c r="O3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="P3" s="15">
+        <v/>
+      </c>
+      <c r="P3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v/>
       </c>
       <c r="Q3" s="15" t="str">
         <f t="shared" si="0"/>
@@ -5009,11 +5001,11 @@
       </c>
       <c r="F4" s="15">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4" s="15">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H4" s="15">
         <f t="shared" si="3"/>
@@ -5025,7 +5017,7 @@
       </c>
       <c r="J4" s="15">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K4" s="15">
         <f t="shared" si="3"/>
@@ -5033,23 +5025,23 @@
       </c>
       <c r="L4" s="15">
         <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="M4" s="15">
+        <v>5</v>
+      </c>
+      <c r="M4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="N4" s="15">
+        <v/>
+      </c>
+      <c r="N4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="O4" s="15">
+        <v/>
+      </c>
+      <c r="O4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="P4" s="15">
+        <v/>
+      </c>
+      <c r="P4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v/>
       </c>
       <c r="Q4" s="15" t="str">
         <f t="shared" si="3"/>
@@ -5296,11 +5288,11 @@
       </c>
       <c r="F5" s="15">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="G5" s="15">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H5" s="15">
         <f t="shared" si="5"/>
@@ -5312,7 +5304,7 @@
       </c>
       <c r="J5" s="15">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="K5" s="15">
         <f t="shared" si="5"/>
@@ -5320,23 +5312,23 @@
       </c>
       <c r="L5" s="15">
         <f t="shared" si="5"/>
-        <v>-2</v>
-      </c>
-      <c r="M5" s="15">
+        <v>0</v>
+      </c>
+      <c r="M5" s="15" t="str">
         <f t="shared" si="5"/>
-        <v>-3</v>
-      </c>
-      <c r="N5" s="15">
+        <v/>
+      </c>
+      <c r="N5" s="15" t="str">
         <f t="shared" si="5"/>
-        <v>-4</v>
-      </c>
-      <c r="O5" s="15">
+        <v/>
+      </c>
+      <c r="O5" s="15" t="str">
         <f t="shared" si="5"/>
-        <v>-4</v>
-      </c>
-      <c r="P5" s="15">
+        <v/>
+      </c>
+      <c r="P5" s="15" t="str">
         <f t="shared" si="5"/>
-        <v>-5</v>
+        <v/>
       </c>
       <c r="Q5" s="15" t="str">
         <f t="shared" si="5"/>
@@ -5681,7 +5673,7 @@
       </c>
       <c r="K7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>N</v>
+        <v>P</v>
       </c>
       <c r="L7" s="16" t="str">
         <f t="shared" si="8"/>
@@ -5689,23 +5681,23 @@
       </c>
       <c r="M7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v>N</v>
       </c>
       <c r="N7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="O7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="P7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="Q7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="R7" s="16" t="str">
         <f t="shared" si="8"/>
@@ -5968,7 +5960,7 @@
       </c>
       <c r="J8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="K8" s="15" t="str">
         <f t="shared" si="10"/>
@@ -5976,27 +5968,27 @@
       </c>
       <c r="L8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="M8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="N8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="O8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="P8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="Q8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>T</v>
+        <v/>
       </c>
       <c r="R8" s="15" t="str">
         <f t="shared" si="10"/>
@@ -6266,7 +6258,7 @@
       </c>
       <c r="L9" s="15" t="str">
         <f t="shared" si="12"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="M9" s="15" t="str">
         <f t="shared" si="12"/>
@@ -6274,21 +6266,21 @@
       </c>
       <c r="N9" s="15" t="str">
         <f t="shared" si="12"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="O9" s="15" t="str">
         <f t="shared" ref="O9:T9" si="13">IF(N2="","",
 IF(C2=I2,IF(I2="P","B","P"),
 IF(C2&lt;&gt;I2,I2)))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="P9" s="15" t="str">
         <f t="shared" si="13"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="Q9" s="15" t="str">
         <f t="shared" si="13"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="R9" s="15" t="str">
         <f t="shared" si="13"/>
@@ -6634,31 +6626,31 @@
       </c>
       <c r="J11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="K11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v>N</v>
+        <v>W</v>
       </c>
       <c r="L11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="M11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="N11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="O11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="P11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="Q11" s="16" t="str">
         <f t="shared" si="16"/>
@@ -6932,7 +6924,7 @@
       </c>
       <c r="K12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="L12" s="15" t="str">
         <f t="shared" si="19"/>
@@ -6940,19 +6932,19 @@
       </c>
       <c r="M12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="N12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="O12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="P12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="Q12" s="15" t="str">
         <f t="shared" si="19"/>
@@ -7222,11 +7214,11 @@
       </c>
       <c r="J13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="K13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="L13" s="16" t="str">
         <f t="shared" si="22"/>
@@ -7234,19 +7226,19 @@
       </c>
       <c r="M13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="N13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="O13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="P13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="Q13" s="16" t="str">
         <f t="shared" si="22"/>
@@ -7604,23 +7596,23 @@
 IF(M7="N","N",
 IF(COUNTIF(I11:L11,"W")&gt;=2,M7,
 IF(COUNTIF(I11:L11,"W")&lt;2,IF(M7="P","B","P")))))</f>
-        <v>B</v>
+        <v>N</v>
       </c>
       <c r="N15" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="O15" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="P15" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="Q15" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="R15" s="15" t="str">
         <f t="shared" si="26"/>
@@ -7906,23 +7898,23 @@
       </c>
       <c r="M16" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="N16" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="O16" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="P16" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="Q16" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>T</v>
+        <v/>
       </c>
       <c r="R16" s="15" t="str">
         <f t="shared" si="26"/>
@@ -8193,23 +8185,23 @@
       </c>
       <c r="M17" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="N17" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="O17" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="P17" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="Q17" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="R17" s="15" t="str">
         <f t="shared" si="26"/>
@@ -8559,19 +8551,19 @@
       </c>
       <c r="M19" s="15" t="str">
         <f t="shared" si="34"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="N19" s="15" t="str">
         <f t="shared" si="34"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="O19" s="15" t="str">
         <f t="shared" si="34"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="P19" s="15" t="str">
         <f t="shared" si="34"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="Q19" s="15" t="str">
         <f t="shared" si="34"/>
@@ -8853,19 +8845,19 @@
       </c>
       <c r="M20" s="15" t="str">
         <f t="shared" si="37"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="N20" s="15" t="str">
         <f t="shared" si="37"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="O20" s="15" t="str">
         <f t="shared" si="37"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="P20" s="15" t="str">
         <f t="shared" si="37"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="Q20" s="15" t="str">
         <f t="shared" si="37"/>
@@ -9147,19 +9139,19 @@
       </c>
       <c r="M21" s="15" t="str">
         <f t="shared" si="40"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="N21" s="15" t="str">
         <f t="shared" si="40"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="O21" s="15" t="str">
         <f t="shared" si="40"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="P21" s="15" t="str">
         <f t="shared" si="40"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="Q21" s="15" t="str">
         <f t="shared" si="40"/>
@@ -9514,23 +9506,23 @@
       </c>
       <c r="M23" s="16" t="str">
         <f t="shared" si="43"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="N23" s="16" t="str">
         <f t="shared" si="43"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="O23" s="16" t="str">
         <f t="shared" si="43"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="P23" s="16" t="str">
         <f t="shared" si="43"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="Q23" s="16" t="str">
         <f t="shared" si="43"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="R23" s="16" t="str">
         <f t="shared" si="43"/>
@@ -9806,19 +9798,19 @@
       </c>
       <c r="M24" s="16" t="str">
         <f t="shared" si="45"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="N24" s="16" t="str">
         <f t="shared" si="45"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="O24" s="16" t="str">
         <f t="shared" si="45"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="P24" s="16" t="str">
         <f t="shared" si="45"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="Q24" s="16" t="str">
         <f t="shared" si="45"/>
@@ -10105,23 +10097,23 @@
       </c>
       <c r="M25" s="19" t="str">
         <f t="shared" si="48"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="N25" s="19" t="str">
         <f t="shared" si="48"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="O25" s="19" t="str">
         <f t="shared" si="48"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="P25" s="19" t="str">
         <f t="shared" si="48"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="Q25" s="19" t="str">
         <f t="shared" si="48"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="R25" s="19" t="str">
         <f t="shared" si="48"/>
@@ -10399,19 +10391,19 @@
       </c>
       <c r="M26" s="16" t="str">
         <f t="shared" si="51"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="N26" s="16" t="str">
         <f t="shared" si="51"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="O26" s="16" t="str">
         <f t="shared" si="51"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="P26" s="16" t="str">
         <f t="shared" si="51"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="Q26" s="16" t="str">
         <f t="shared" si="51"/>

--- a/AUTO - 복사본.xlsx
+++ b/AUTO - 복사본.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\holdem-auto-trader-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1638B96C-0CEB-4D40-92BE-A63F839D6057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{085679C1-BCBB-4FC2-A91A-658EC93EA639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19770" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28515" yWindow="465" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="15">
   <si>
     <t>본매 PB</t>
   </si>
@@ -1346,33 +1346,35 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L3" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1438,11 +1440,11 @@
       <c r="BW3" s="7"/>
       <c r="BX3" s="11">
         <f>IF(B3="","",COUNTIF(B3:BW3,"P"))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BY3" s="12">
         <f>IF(B3="","",COUNTIF(B3:BW3,"B"))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BZ3" s="12"/>
       <c r="CA3" s="13">
@@ -2325,7 +2327,7 @@
       </c>
       <c r="M12" s="2" t="str">
         <f>IF(AI!N25="","",AI!N25)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="N12" s="2" t="str">
         <f>IF(AI!O25="","",AI!O25)</f>
@@ -2944,7 +2946,7 @@
       </c>
       <c r="L16" s="2" t="str">
         <f>IF(AI!M26="","",AI!M26)</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="M16" s="2" t="str">
         <f>IF(AI!N26="","",AI!N26)</f>
@@ -3204,12 +3206,12 @@
       </c>
       <c r="BY16" s="12">
         <f>IF(B16="","",COUNTIF(B16:BW16,"L"))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ16" s="12"/>
       <c r="CA16" s="13">
         <f>IF(B16="","",BX16-BY16)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:79" ht="17.25" customHeight="1" thickBot="1">
@@ -4411,11 +4413,11 @@
       </c>
       <c r="D2" s="15" t="str">
         <f>IF(DATA!C3="","",DATA!C3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="E2" s="15" t="str">
         <f>IF(DATA!D3="","",DATA!D3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="F2" s="15" t="str">
         <f>IF(DATA!E3="","",DATA!E3)</f>
@@ -4423,7 +4425,7 @@
       </c>
       <c r="G2" s="15" t="str">
         <f>IF(DATA!F3="","",DATA!F3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="H2" s="15" t="str">
         <f>IF(DATA!G3="","",DATA!G3)</f>
@@ -4431,11 +4433,11 @@
       </c>
       <c r="I2" s="15" t="str">
         <f>IF(DATA!H3="","",DATA!H3)</f>
-        <v>B</v>
+        <v>T</v>
       </c>
       <c r="J2" s="15" t="str">
         <f>IF(DATA!I3="","",DATA!I3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="K2" s="15" t="str">
         <f>IF(DATA!J3="","",DATA!J3)</f>
@@ -4443,11 +4445,11 @@
       </c>
       <c r="L2" s="15" t="str">
         <f>IF(DATA!K3="","",DATA!K3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="M2" s="15" t="str">
         <f>IF(DATA!L3="","",DATA!L3)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="N2" s="15" t="str">
         <f>IF(DATA!M3="","",DATA!M3)</f>
@@ -4701,7 +4703,7 @@
       <c r="D3" s="15">
         <f t="shared" ref="D3:AI3" si="0">IF(D2="","",
 IF(D2="P",C3+1,C3))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="15">
         <f t="shared" si="0"/>
@@ -4713,15 +4715,15 @@
       </c>
       <c r="G3" s="15">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" s="15">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3" s="15">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J3" s="15">
         <f t="shared" si="0"/>
@@ -4733,11 +4735,11 @@
       </c>
       <c r="L3" s="15">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="M3" s="15" t="str">
+        <v>4</v>
+      </c>
+      <c r="M3" s="15">
         <f t="shared" si="0"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="N3" s="15" t="str">
         <f t="shared" si="0"/>
@@ -4993,7 +4995,7 @@
       <c r="D4" s="15">
         <f t="shared" ref="D4:AI4" si="3">IF(D2="","",
 IF(D2="B",C4+1,C4))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" s="15">
         <f t="shared" si="3"/>
@@ -5005,11 +5007,11 @@
       </c>
       <c r="G4" s="15">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H4" s="15">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I4" s="15">
         <f t="shared" si="3"/>
@@ -5017,19 +5019,19 @@
       </c>
       <c r="J4" s="15">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K4" s="15">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L4" s="15">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="M4" s="15" t="str">
+      <c r="M4" s="15">
         <f t="shared" si="3"/>
-        <v/>
+        <v>6</v>
       </c>
       <c r="N4" s="15" t="str">
         <f t="shared" si="3"/>
@@ -5280,7 +5282,7 @@
       </c>
       <c r="D5" s="15">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E5" s="15">
         <f t="shared" si="5"/>
@@ -5292,31 +5294,31 @@
       </c>
       <c r="G5" s="15">
         <f t="shared" si="5"/>
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="H5" s="15">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="I5" s="15">
         <f t="shared" si="5"/>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="J5" s="15">
         <f t="shared" si="5"/>
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="K5" s="15">
         <f t="shared" si="5"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="15">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M5" s="15" t="str">
+        <v>-1</v>
+      </c>
+      <c r="M5" s="15">
         <f t="shared" si="5"/>
-        <v/>
+        <v>-2</v>
       </c>
       <c r="N5" s="15" t="str">
         <f t="shared" si="5"/>
@@ -5665,7 +5667,7 @@
         <f t="shared" ref="I7:AN7" si="8">IF(H2="","",
 IF(H5&gt;0,"B",
 IF(H5&lt;0,"P","N")))</f>
-        <v>N</v>
+        <v>P</v>
       </c>
       <c r="J7" s="16" t="str">
         <f t="shared" si="8"/>
@@ -5677,15 +5679,15 @@
       </c>
       <c r="L7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v>N</v>
       </c>
       <c r="M7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>N</v>
+        <v>P</v>
       </c>
       <c r="N7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="O7" s="16" t="str">
         <f t="shared" si="8"/>
@@ -5956,7 +5958,7 @@
         <f t="shared" ref="I8:AN8" si="10">IF(H2="","",
 IF(G2=H2,H2,
 IF(G2&lt;&gt;H2,G2)))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="J8" s="15" t="str">
         <f t="shared" si="10"/>
@@ -5964,11 +5966,11 @@
       </c>
       <c r="K8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>B</v>
+        <v>T</v>
       </c>
       <c r="L8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="M8" s="15" t="str">
         <f t="shared" si="10"/>
@@ -5976,7 +5978,7 @@
       </c>
       <c r="N8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="O8" s="15" t="str">
         <f t="shared" si="10"/>
@@ -6250,11 +6252,11 @@
       </c>
       <c r="J9" s="15" t="str">
         <f t="shared" si="12"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="K9" s="15" t="str">
         <f t="shared" si="12"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="L9" s="15" t="str">
         <f t="shared" si="12"/>
@@ -6262,11 +6264,11 @@
       </c>
       <c r="M9" s="15" t="str">
         <f t="shared" si="12"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="N9" s="15" t="str">
         <f t="shared" si="12"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="O9" s="15" t="str">
         <f t="shared" ref="O9:T9" si="13">IF(N2="","",
@@ -6622,11 +6624,11 @@
       </c>
       <c r="I11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v>N</v>
+        <v>L</v>
       </c>
       <c r="J11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="K11" s="16" t="str">
         <f t="shared" si="16"/>
@@ -6634,11 +6636,11 @@
       </c>
       <c r="L11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v>W</v>
+        <v>N</v>
       </c>
       <c r="M11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="N11" s="16" t="str">
         <f t="shared" si="16"/>
@@ -6920,7 +6922,7 @@
       </c>
       <c r="J12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="K12" s="15" t="str">
         <f t="shared" si="19"/>
@@ -6932,7 +6934,7 @@
       </c>
       <c r="M12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="N12" s="15" t="str">
         <f t="shared" si="19"/>
@@ -7218,15 +7220,15 @@
       </c>
       <c r="K13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="L13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="M13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="N13" s="16" t="str">
         <f t="shared" si="22"/>
@@ -7596,11 +7598,11 @@
 IF(M7="N","N",
 IF(COUNTIF(I11:L11,"W")&gt;=2,M7,
 IF(COUNTIF(I11:L11,"W")&lt;2,IF(M7="P","B","P")))))</f>
-        <v>N</v>
+        <v>P</v>
       </c>
       <c r="N15" s="15" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="O15" s="15" t="str">
         <f t="shared" si="26"/>
@@ -7902,7 +7904,7 @@
       </c>
       <c r="N16" s="15" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="O16" s="15" t="str">
         <f t="shared" si="26"/>
@@ -8189,7 +8191,7 @@
       </c>
       <c r="N17" s="15" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="O17" s="15" t="str">
         <f t="shared" si="26"/>
@@ -8551,7 +8553,7 @@
       </c>
       <c r="M19" s="15" t="str">
         <f t="shared" si="34"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="N19" s="15" t="str">
         <f t="shared" si="34"/>
@@ -8845,7 +8847,7 @@
       </c>
       <c r="M20" s="15" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="N20" s="15" t="str">
         <f t="shared" si="37"/>
@@ -9139,7 +9141,7 @@
       </c>
       <c r="M21" s="15" t="str">
         <f t="shared" si="40"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="N21" s="15" t="str">
         <f t="shared" si="40"/>
@@ -9510,7 +9512,7 @@
       </c>
       <c r="N23" s="16" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="O23" s="16" t="str">
         <f t="shared" si="43"/>
@@ -9798,7 +9800,7 @@
       </c>
       <c r="M24" s="16" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="N24" s="16" t="str">
         <f t="shared" si="45"/>
@@ -10101,7 +10103,7 @@
       </c>
       <c r="N25" s="19" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="O25" s="19" t="str">
         <f t="shared" si="48"/>
@@ -10391,7 +10393,7 @@
       </c>
       <c r="M26" s="16" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="N26" s="16" t="str">
         <f t="shared" si="51"/>
@@ -10637,5 +10639,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="119" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>